--- a/src/data/control/patients - Copy.xlsx
+++ b/src/data/control/patients - Copy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -72,47 +72,31 @@
     <t>Alarm</t>
   </si>
   <si>
-    <t>ahmed</t>
-  </si>
-  <si>
     <t>O+</t>
   </si>
   <si>
     <t>male</t>
   </si>
   <si>
-    <t>shehab</t>
-  </si>
-  <si>
-    <t>mayar</t>
-  </si>
-  <si>
-    <t>AB+</t>
-  </si>
-  <si>
     <t>female</t>
   </si>
   <si>
-    <t>B-</t>
-  </si>
-  <si>
-    <t>hamada</t>
-  </si>
-  <si>
-    <t>Shehab</t>
+    <t>Patient 1</t>
+  </si>
+  <si>
+    <t>Patient 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.00000;[Red]0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000;[Red]0.0000"/>
     <numFmt numFmtId="166" formatCode="0;[Red]0"/>
     <numFmt numFmtId="167" formatCode="m/d/yy\ h:mm;@"/>
     <numFmt numFmtId="168" formatCode="d/m/yy\ hh:mm:ss"/>
-    <numFmt numFmtId="169" formatCode="d/m/yy hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -156,7 +140,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -171,22 +155,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -820,27 +788,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="7.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="11.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="13.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="13.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="13.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="13.5546875" collapsed="true"/>
-    <col min="8" max="11" customWidth="true" style="6" width="9.44140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="6" width="9.5546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="4" width="13.109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="2" width="7.44140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="7" width="6.44140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="9" width="20.77734375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="9" width="23.44140625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="8" width="22.6640625" collapsed="true"/>
+    <col min="1" max="1" width="7.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.77734375" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="4.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="5.21875" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="4.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="6.5546875" style="6" customWidth="1" collapsed="1"/>
+    <col min="9" max="11" width="6.33203125" style="6" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="7.109375" style="6" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.88671875" style="4" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="7.44140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.44140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.77734375" style="9" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.44140625" style="9" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="22.6640625" style="8" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -899,47 +868,110 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>108</v>
+      </c>
+      <c r="D2">
+        <v>108</v>
+      </c>
+      <c r="E2">
+        <v>51</v>
+      </c>
+      <c r="F2">
+        <v>93</v>
+      </c>
+      <c r="G2">
+        <v>98</v>
+      </c>
+      <c r="H2">
+        <v>35.819999694824219</v>
+      </c>
+      <c r="I2">
+        <v>37.340000152587891</v>
+      </c>
+      <c r="J2">
+        <v>37.069999694824219</v>
+      </c>
+      <c r="K2">
+        <v>37.770000457763672</v>
+      </c>
+      <c r="L2">
+        <v>36.110000610351563</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2">
+        <v>12</v>
+      </c>
+      <c r="P2" s="10">
+        <v>42501.207151319446</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>42516.754833449071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="C3">
+        <v>103</v>
+      </c>
+      <c r="D3">
+        <v>104</v>
+      </c>
+      <c r="E3">
+        <v>103</v>
+      </c>
+      <c r="F3">
+        <v>65</v>
+      </c>
+      <c r="G3">
+        <v>104</v>
+      </c>
+      <c r="H3">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>37.849998474121094</v>
+      </c>
+      <c r="J3">
+        <v>36.020000457763672</v>
+      </c>
+      <c r="K3">
+        <v>37.529998779296875</v>
+      </c>
+      <c r="L3">
+        <v>36.889999389648438</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3">
         <v>25</v>
       </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="P2" t="n" s="26">
-        <v>42501.207151319446</v>
-      </c>
-      <c r="Q2" t="n" s="26">
-        <v>42501.22014013889</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="P3" t="n" s="27">
-        <v>42502.77497329861</v>
+      <c r="P3" s="11">
+        <v>42502.774973298612</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>42516.754933634256</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/control/patients - Copy.xlsx
+++ b/src/data/control/patients - Copy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -85,18 +85,25 @@
   </si>
   <si>
     <t>Patient 2</t>
+  </si>
+  <si>
+    <t>patient 3</t>
+  </si>
+  <si>
+    <t>B+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.00000;[Red]0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000;[Red]0.0000"/>
     <numFmt numFmtId="166" formatCode="0;[Red]0"/>
     <numFmt numFmtId="167" formatCode="m/d/yy\ h:mm;@"/>
     <numFmt numFmtId="168" formatCode="d/m/yy\ hh:mm:ss"/>
+    <numFmt numFmtId="169" formatCode="d/m/yy hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -140,7 +147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="415">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -155,6 +162,409 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -789,27 +1199,27 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.77734375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="4.88671875" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="5.21875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="4.88671875" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6.5546875" style="6" customWidth="1" collapsed="1"/>
-    <col min="9" max="11" width="6.33203125" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="7.109375" style="6" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.88671875" style="4" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="7.44140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.44140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.77734375" style="9" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.44140625" style="9" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="22.6640625" style="8" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="7.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="11.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="7.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="6.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="4.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="5.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="4.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="6" width="6.5546875" collapsed="true"/>
+    <col min="9" max="11" customWidth="true" style="6" width="6.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="6" width="7.109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="4" width="11.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="2" width="7.44140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="7" width="6.44140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="9" width="20.77734375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="9" width="23.44140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="8" width="22.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -868,110 +1278,56 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2">
-        <v>108</v>
-      </c>
-      <c r="D2">
-        <v>108</v>
-      </c>
-      <c r="E2">
-        <v>51</v>
-      </c>
-      <c r="F2">
-        <v>93</v>
-      </c>
-      <c r="G2">
-        <v>98</v>
-      </c>
-      <c r="H2">
-        <v>35.819999694824219</v>
-      </c>
-      <c r="I2">
-        <v>37.340000152587891</v>
-      </c>
-      <c r="J2">
-        <v>37.069999694824219</v>
-      </c>
-      <c r="K2">
-        <v>37.770000457763672</v>
-      </c>
-      <c r="L2">
-        <v>36.110000610351563</v>
-      </c>
       <c r="M2" t="s">
         <v>18</v>
       </c>
       <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="O2">
-        <v>12</v>
-      </c>
-      <c r="P2" s="10">
+      <c r="O2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="P2" t="n" s="413">
         <v>42501.207151319446</v>
       </c>
-      <c r="Q2" s="10">
-        <v>42516.754833449071</v>
+      <c r="Q2" t="n" s="413">
+        <v>42516.75483344907</v>
+      </c>
+      <c r="R2" t="n" s="413">
+        <v>42524.7684271875</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3">
-        <v>103</v>
-      </c>
-      <c r="D3">
-        <v>104</v>
-      </c>
-      <c r="E3">
-        <v>103</v>
-      </c>
-      <c r="F3">
-        <v>65</v>
-      </c>
-      <c r="G3">
-        <v>104</v>
-      </c>
-      <c r="H3">
-        <v>35</v>
-      </c>
-      <c r="I3">
-        <v>37.849998474121094</v>
-      </c>
-      <c r="J3">
-        <v>36.020000457763672</v>
-      </c>
-      <c r="K3">
-        <v>37.529998779296875</v>
-      </c>
-      <c r="L3">
-        <v>36.889999389648438</v>
-      </c>
       <c r="M3" t="s">
         <v>18</v>
       </c>
       <c r="N3" t="s">
         <v>19</v>
       </c>
-      <c r="O3">
-        <v>25</v>
-      </c>
-      <c r="P3" s="11">
-        <v>42502.774973298612</v>
-      </c>
-      <c r="Q3" s="11">
+      <c r="O3" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="P3" t="n" s="414">
+        <v>42502.77497329861</v>
+      </c>
+      <c r="Q3" t="n" s="414">
         <v>42516.754933634256</v>
+      </c>
+      <c r="R3" t="n" s="414">
+        <v>42524.803882962966</v>
       </c>
     </row>
   </sheetData>
